--- a/reports/Group/Tiempo estimado-real.xlsx
+++ b/reports/Group/Tiempo estimado-real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DP2\Documents\Workspace-24\Projects\Acme-SF-D01\reports\Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D192C47-11A7-4913-8B58-1295B59B5764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB18C43-FA1D-42F6-91F0-B02AD9FEAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{08F9934D-43B2-436E-8607-F2E43C784395}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08F9934D-43B2-436E-8607-F2E43C784395}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="4" r:id="rId1"/>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -378,12 +378,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,14 +462,65 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,54 +528,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1649,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,21 +4054,21 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="37" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="H4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="O4" s="28" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="O4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="13">
@@ -3974,7 +4083,7 @@
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="14">
@@ -3989,115 +4098,115 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35">
+      <c r="C7" s="42"/>
+      <c r="D7" s="23">
         <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="21">
         <f>E7/60</f>
         <v>0.75</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41">
+      <c r="I7" s="43"/>
+      <c r="J7" s="25">
         <v>30</v>
       </c>
       <c r="K7" s="1">
         <v>90</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="26">
         <f>K7/60</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35">
+      <c r="C8" s="42"/>
+      <c r="D8" s="23">
         <v>20</v>
       </c>
       <c r="E8" s="1">
         <f>45+20</f>
         <v>65</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="22">
         <f>E8/60</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41">
+      <c r="I8" s="43"/>
+      <c r="J8" s="25">
         <v>20</v>
       </c>
       <c r="K8" s="1">
         <v>50</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="27">
         <f>K8/60</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="36">
+      <c r="C10" s="44"/>
+      <c r="D10" s="45">
         <f>D7*F7+D8*F8</f>
         <v>44.166666666666664</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="H10" s="20" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="H10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="44">
+      <c r="I10" s="46"/>
+      <c r="J10" s="35">
         <f>J7*L7+J8*L8</f>
         <v>61.666666666666671</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -4119,11 +4228,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
@@ -4131,6 +4235,11 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4198,18 +4307,18 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="I4" s="25" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="I4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
       <c r="O4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4238,20 +4347,20 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="5" t="s">
         <v>1</v>
       </c>
@@ -4260,20 +4369,20 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="4">
         <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="4">
         <v>30</v>
       </c>
@@ -4282,20 +4391,20 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="4">
         <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="4">
         <v>20</v>
       </c>
@@ -4304,24 +4413,24 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19">
+      <c r="C10" s="44"/>
+      <c r="D10" s="47">
         <f>D7*E7 + D8*E8</f>
         <v>37.4</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="I10" s="20" t="s">
+      <c r="E10" s="47"/>
+      <c r="I10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21">
+      <c r="J10" s="46"/>
+      <c r="K10" s="48">
         <f>K7*L7+K8*L8</f>
         <v>71.400000000000006</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -4393,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1538CD56-0247-4FF3-B2B1-3BAFD0549E9D}">
   <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4429,21 +4538,21 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="37" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="H4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="O4" s="28" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="O4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="13">
@@ -4458,7 +4567,11 @@
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O5" s="27" t="s">
+      <c r="B5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="O5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="14">
@@ -4466,122 +4579,128 @@
       </c>
       <c r="Q5" s="9">
         <f>K7+K8</f>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35">
+      <c r="C7" s="42"/>
+      <c r="D7" s="23">
         <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <f>E7/60</f>
         <v>0.75</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41">
+      <c r="I7" s="43"/>
+      <c r="J7" s="25">
         <v>30</v>
       </c>
       <c r="K7" s="1">
-        <v>90</v>
-      </c>
-      <c r="L7" s="42">
+        <v>70</v>
+      </c>
+      <c r="L7" s="34">
         <f>K7/60</f>
-        <v>1.5</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35">
+      <c r="C8" s="42"/>
+      <c r="D8" s="23">
         <v>20</v>
       </c>
       <c r="E8" s="1">
         <f>45+20</f>
         <v>65</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <f>E8/60</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41">
+      <c r="I8" s="43"/>
+      <c r="J8" s="25">
         <v>20</v>
       </c>
       <c r="K8" s="1">
         <v>50</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="34">
         <f>K8/60</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="36">
+      <c r="C10" s="59"/>
+      <c r="D10" s="64">
         <f>D7*F7+D8*F8</f>
         <v>44.166666666666664</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="H10" s="20" t="s">
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="H10" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="44">
+      <c r="I10" s="69"/>
+      <c r="J10" s="52">
         <f>J7*L7+J8*L8</f>
-        <v>61.666666666666671</v>
-      </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+        <v>51.666666666666671</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -4603,6 +4722,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:F4"/>
@@ -4611,10 +4734,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
